--- a/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Garantia_Terminos Por Rol_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Garantia_Terminos Por Rol_2018-Abríl.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
